--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javy/github/backuptesting/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635FAEAE-85C6-614A-92E5-0EFFFB4BB458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CFCF6E-D643-7140-9F24-6E3414B531A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34420" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{64BC9320-7B3A-0A43-888C-C27A5034614D}"/>
+    <workbookView xWindow="19520" yWindow="3200" windowWidth="30760" windowHeight="17500" xr2:uid="{64BC9320-7B3A-0A43-888C-C27A5034614D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Backup</t>
   </si>
@@ -63,6 +63,24 @@
   </si>
   <si>
     <t>Link to dataset</t>
+  </si>
+  <si>
+    <t>c6i.xlarge</t>
+  </si>
+  <si>
+    <t>r6i.large</t>
+  </si>
+  <si>
+    <t>m5zn.large</t>
+  </si>
+  <si>
+    <t>m5zn.xlarge</t>
+  </si>
+  <si>
+    <t>x2iedn.xlarge</t>
+  </si>
+  <si>
+    <t>m5zn.2xlarge</t>
   </si>
 </sst>
 </file>
@@ -433,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1512C6-69BD-B942-BA01-B5FBF6E477D7}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="E14" sqref="A1:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -505,53 +523,155 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>4182</v>
+        <v>3315</v>
       </c>
       <c r="C6">
-        <v>3976</v>
+        <v>3030</v>
       </c>
       <c r="D6">
-        <v>810</v>
+        <v>737</v>
       </c>
       <c r="E6">
-        <v>695</v>
+        <v>604</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>3872</v>
+        <v>4182</v>
       </c>
       <c r="C7">
-        <v>3852</v>
+        <v>3976</v>
       </c>
       <c r="D7">
-        <v>901</v>
+        <v>810</v>
       </c>
       <c r="E7">
-        <v>787</v>
+        <v>695</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>3872</v>
+      </c>
+      <c r="C8">
+        <v>3852</v>
+      </c>
+      <c r="D8">
+        <v>901</v>
+      </c>
+      <c r="E8">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>3242</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>3210</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>714</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>632</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>3314</v>
+      </c>
+      <c r="C10">
+        <v>3026</v>
+      </c>
+      <c r="D10">
+        <v>759</v>
+      </c>
+      <c r="E10">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>2817</v>
+      </c>
+      <c r="C11">
+        <v>2784</v>
+      </c>
+      <c r="D11">
+        <v>693</v>
+      </c>
+      <c r="E11">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>2817</v>
+      </c>
+      <c r="C12">
+        <v>2782</v>
+      </c>
+      <c r="D12">
+        <v>690</v>
+      </c>
+      <c r="E12">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>2791</v>
+      </c>
+      <c r="C13">
+        <v>2472</v>
+      </c>
+      <c r="D13">
+        <v>670</v>
+      </c>
+      <c r="E13">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>2766</v>
+      </c>
+      <c r="C14">
+        <v>2714</v>
+      </c>
+      <c r="D14">
+        <v>716</v>
+      </c>
+      <c r="E14">
+        <v>610</v>
       </c>
     </row>
   </sheetData>
